--- a/Documents/DataAccessBenchmark.xlsx
+++ b/Documents/DataAccessBenchmark.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>JIT</t>
   </si>
@@ -24,10 +24,25 @@
     <t>Reflection</t>
   </si>
   <si>
-    <t>MySql</t>
-  </si>
-  <si>
     <t>ADO</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>DTOType</t>
+  </si>
+  <si>
+    <t>DTO</t>
+  </si>
+  <si>
+    <t>PONO</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -51,7 +66,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,12 +85,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -193,27 +202,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,151 +520,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="15" width="10.7109375" customWidth="1"/>
+    <col min="3" max="16" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="3"/>
-      <c r="B1" s="6">
+    <row r="1" spans="1:17">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3">
         <v>10</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="3">
         <v>100</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6">
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="3">
         <v>1000</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="6">
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="3">
         <v>10000</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="9">
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6">
         <v>100000</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:17">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>3</v>
+      <c r="Q2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1">
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10">
+        <v>9</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10">
+        <v>5</v>
+      </c>
+      <c r="I3" s="10">
+        <v>17</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10">
+        <v>10</v>
+      </c>
+      <c r="L3" s="10">
+        <v>92</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10">
+        <v>45</v>
+      </c>
+      <c r="O3" s="10">
+        <v>1677</v>
+      </c>
+      <c r="P3" s="10">
+        <v>3190</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="1">
-        <v>48</v>
-      </c>
-      <c r="L3" s="1">
-        <v>157</v>
-      </c>
-      <c r="M3" s="1">
-        <v>26</v>
-      </c>
-      <c r="N3" s="1">
-        <v>475</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1463</v>
-      </c>
-      <c r="P3" s="1">
-        <v>230</v>
+      <c r="B4" s="10">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="10">
+        <v>1081</v>
+      </c>
+      <c r="P4" s="10">
+        <v>5434</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="10">
+        <v>2101</v>
+      </c>
+      <c r="P5" s="10">
+        <v>2046</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="H1:J1"/>
+  <mergeCells count="7">
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
